--- a/participants/participant_21/participant_21_task_orders.xlsx
+++ b/participants/participant_21/participant_21_task_orders.xlsx
@@ -7,11 +7,11 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="GNG_TO-16498730682983804" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet name="NB_TO-16498730717031279" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet name="RS_TO-1649873071709095" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet name="TOL_TO-16498730717661345" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet name="vSAT_TO-16498730718271291" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet name="GNG_TO-16502911885366724" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="NB_TO-16502911914245977" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="RS_TO-16502911914266021" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="TOL_TO-16502911914885993" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet name="vSAT_TO-1650291191583606" sheetId="5" state="visible" r:id="rId5"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -450,7 +450,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>go_stims-16498730682553802.csv</t>
+          <t>go_stims-16502911884996686.csv</t>
         </is>
       </c>
     </row>
@@ -460,7 +460,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>GNG_stims-1649873068282383.csv</t>
+          <t>GNG_stims-16502911885196724.csv</t>
         </is>
       </c>
     </row>
@@ -470,7 +470,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>go_stims-1649873068283382.csv</t>
+          <t>go_stims-16502911885216691.csv</t>
         </is>
       </c>
     </row>
@@ -480,7 +480,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>GNG_stims-1649873068297416.csv</t>
+          <t>GNG_stims-16502911885356708.csv</t>
         </is>
       </c>
     </row>
@@ -516,7 +516,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>TB-16498730704651265.csv</t>
+          <t>OB-1650291189652669.csv</t>
         </is>
       </c>
     </row>
@@ -526,7 +526,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>TB-16498730716831307.csv</t>
+          <t>TB-16502911909765978.csv</t>
         </is>
       </c>
     </row>
@@ -536,7 +536,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>OB-164987306932113.csv</t>
+          <t>ZB-match_0-16502911886716685.csv</t>
         </is>
       </c>
     </row>
@@ -546,7 +546,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>TB-16498730713901281.csv</t>
+          <t>OB-16502911893096697.csv</t>
         </is>
       </c>
     </row>
@@ -556,7 +556,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>OB-16498730697920947.csv</t>
+          <t>ZB-match_2-16502911887646728.csv</t>
         </is>
       </c>
     </row>
@@ -566,7 +566,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>ZB-match_3-16498730683074155.csv</t>
+          <t>ZB-match_6-16502911891436703.csv</t>
         </is>
       </c>
     </row>
@@ -576,7 +576,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>OB-16498730699620948.csv</t>
+          <t>OB-1650291190665151.csv</t>
         </is>
       </c>
     </row>
@@ -586,7 +586,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>ZB-match_5-16498730689860935.csv</t>
+          <t>TB-1650291191086608.csv</t>
         </is>
       </c>
     </row>
@@ -596,7 +596,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>ZB-match_1-1649873068685096.csv</t>
+          <t>TB-16502911914116008.csv</t>
         </is>
       </c>
     </row>
@@ -632,7 +632,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>eyes closed</t>
+          <t>eyes open</t>
         </is>
       </c>
     </row>
@@ -642,7 +642,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>eyes open</t>
+          <t>eyes closed</t>
         </is>
       </c>
     </row>
@@ -678,7 +678,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>MM_stims-164987307173413.csv</t>
+          <t>MM_stims-1650291191440598.csv</t>
         </is>
       </c>
     </row>
@@ -688,7 +688,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>ZM_stims-16498730717110944.csv</t>
+          <t>ZM_stims-16502911914296005.csv</t>
         </is>
       </c>
     </row>
@@ -698,7 +698,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>MM_stims-16498730717501307.csv</t>
+          <t>MM_stims-16502911914715955.csv</t>
         </is>
       </c>
     </row>
@@ -708,7 +708,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>ZM_stims-16498730717350948.csv</t>
+          <t>ZM_stims-16502911914425974.csv</t>
         </is>
       </c>
     </row>
@@ -718,7 +718,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>MM_stims-16498730717651339.csv</t>
+          <t>MM_stims-16502911914876156.csv</t>
         </is>
       </c>
     </row>
@@ -728,7 +728,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>ZM_stims-16498730717510934.csv</t>
+          <t>ZM_stims-16502911914736.csv</t>
         </is>
       </c>
     </row>
@@ -764,7 +764,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>SAT_stims-1649873071769096.csv</t>
+          <t>vSAT_stims-1650291191537609.csv</t>
         </is>
       </c>
     </row>
@@ -774,7 +774,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>vSAT_stims-1649873071796131.csv</t>
+          <t>SAT_stims-1650291191494636.csv</t>
         </is>
       </c>
     </row>
@@ -784,7 +784,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>vSAT_stims-16498730718111296.csv</t>
+          <t>vSAT_stims-16502911915675972.csv</t>
         </is>
       </c>
     </row>
@@ -794,7 +794,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>SAT_stims-1649873071781102.csv</t>
+          <t>SAT_stims-16502911915216074.csv</t>
         </is>
       </c>
     </row>

--- a/participants/participant_21/participant_21_task_orders.xlsx
+++ b/participants/participant_21/participant_21_task_orders.xlsx
@@ -7,11 +7,11 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="GNG_TO-16502911885366724" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet name="NB_TO-16502911914245977" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet name="RS_TO-16502911914266021" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet name="TOL_TO-16502911914885993" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet name="vSAT_TO-1650291191583606" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet name="GNG_TO-1650477825022879" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="NB_TO-16504778280439088" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="RS_TO-16504778280458803" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="TOL_TO-1650477828091911" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet name="vSAT_TO-16504778281558774" sheetId="5" state="visible" r:id="rId5"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -450,7 +450,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>go_stims-16502911884996686.csv</t>
+          <t>go_stims-16504778249868786.csv</t>
         </is>
       </c>
     </row>
@@ -460,7 +460,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>GNG_stims-16502911885196724.csv</t>
+          <t>GNG_stims-16504778250059116.csv</t>
         </is>
       </c>
     </row>
@@ -470,7 +470,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>go_stims-16502911885216691.csv</t>
+          <t>go_stims-1650477825006879.csv</t>
         </is>
       </c>
     </row>
@@ -480,7 +480,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>GNG_stims-16502911885356708.csv</t>
+          <t>GNG_stims-16504778250219145.csv</t>
         </is>
       </c>
     </row>
@@ -516,7 +516,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>OB-1650291189652669.csv</t>
+          <t>TB-16504778270649128.csv</t>
         </is>
       </c>
     </row>
@@ -526,7 +526,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>TB-16502911909765978.csv</t>
+          <t>OB-16504778259638784.csv</t>
         </is>
       </c>
     </row>
@@ -536,7 +536,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>ZB-match_0-16502911886716685.csv</t>
+          <t>TB-16504778280139093.csv</t>
         </is>
       </c>
     </row>
@@ -546,7 +546,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>OB-16502911893096697.csv</t>
+          <t>OB-1650477825883911.csv</t>
         </is>
       </c>
     </row>
@@ -556,7 +556,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>ZB-match_2-16502911887646728.csv</t>
+          <t>ZB-match_5-1650477825443883.csv</t>
         </is>
       </c>
     </row>
@@ -566,7 +566,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>ZB-match_6-16502911891436703.csv</t>
+          <t>ZB-match_4-16504778253148754.csv</t>
         </is>
       </c>
     </row>
@@ -576,7 +576,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>OB-1650291190665151.csv</t>
+          <t>TB-16504778267069166.csv</t>
         </is>
       </c>
     </row>
@@ -586,7 +586,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>TB-1650291191086608.csv</t>
+          <t>OB-1650477826121879.csv</t>
         </is>
       </c>
     </row>
@@ -596,7 +596,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>TB-16502911914116008.csv</t>
+          <t>ZB-match_9-16504778251038754.csv</t>
         </is>
       </c>
     </row>
@@ -632,7 +632,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>eyes open</t>
+          <t>eyes closed</t>
         </is>
       </c>
     </row>
@@ -642,7 +642,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>eyes closed</t>
+          <t>eyes open</t>
         </is>
       </c>
     </row>
@@ -678,7 +678,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>MM_stims-1650291191440598.csv</t>
+          <t>MM_stims-16504778280599139.csv</t>
         </is>
       </c>
     </row>
@@ -688,7 +688,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>ZM_stims-16502911914296005.csv</t>
+          <t>ZM_stims-16504778280478787.csv</t>
         </is>
       </c>
     </row>
@@ -698,7 +698,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>MM_stims-16502911914715955.csv</t>
+          <t>MM_stims-16504778280759106.csv</t>
         </is>
       </c>
     </row>
@@ -708,7 +708,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>ZM_stims-16502911914425974.csv</t>
+          <t>ZM_stims-1650477828060881.csv</t>
         </is>
       </c>
     </row>
@@ -718,7 +718,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>MM_stims-16502911914876156.csv</t>
+          <t>MM_stims-1650477828091911.csv</t>
         </is>
       </c>
     </row>
@@ -728,7 +728,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>ZM_stims-16502911914736.csv</t>
+          <t>ZM_stims-165047782807688.csv</t>
         </is>
       </c>
     </row>
@@ -764,7 +764,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>vSAT_stims-1650291191537609.csv</t>
+          <t>vSAT_stims-16504778281399105.csv</t>
         </is>
       </c>
     </row>
@@ -774,7 +774,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>SAT_stims-1650291191494636.csv</t>
+          <t>SAT_stims-16504778280958784.csv</t>
         </is>
       </c>
     </row>
@@ -784,7 +784,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>vSAT_stims-16502911915675972.csv</t>
+          <t>vSAT_stims-16504778281239138.csv</t>
         </is>
       </c>
     </row>
@@ -794,7 +794,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>SAT_stims-16502911915216074.csv</t>
+          <t>SAT_stims-16504778281079185.csv</t>
         </is>
       </c>
     </row>

--- a/participants/participant_21/participant_21_task_orders.xlsx
+++ b/participants/participant_21/participant_21_task_orders.xlsx
@@ -7,11 +7,11 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="GNG_TO-1650477825022879" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet name="NB_TO-16504778280439088" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet name="RS_TO-16504778280458803" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet name="TOL_TO-1650477828091911" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet name="vSAT_TO-16504778281558774" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet name="GNG_TO-16509961144424143" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="NB_TO-16509961160826461" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="RS_TO-16509961160826461" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="TOL_TO-16509961161465964" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet name="vSAT_TO-16509961162105973" sheetId="5" state="visible" r:id="rId5"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -450,7 +450,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>go_stims-16504778249868786.csv</t>
+          <t>go_stims-1650996114402416.csv</t>
         </is>
       </c>
     </row>
@@ -460,7 +460,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>GNG_stims-16504778250059116.csv</t>
+          <t>GNG_stims-16509961144263744.csv</t>
         </is>
       </c>
     </row>
@@ -470,7 +470,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>go_stims-1650477825006879.csv</t>
+          <t>go_stims-16509961144263744.csv</t>
         </is>
       </c>
     </row>
@@ -480,7 +480,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>GNG_stims-16504778250219145.csv</t>
+          <t>GNG_stims-16509961144424143.csv</t>
         </is>
       </c>
     </row>
@@ -516,7 +516,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>TB-16504778270649128.csv</t>
+          <t>TB-16509961159864101.csv</t>
         </is>
       </c>
     </row>
@@ -526,7 +526,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>OB-16504778259638784.csv</t>
+          <t>TB-1650996116066561.csv</t>
         </is>
       </c>
     </row>
@@ -536,7 +536,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>TB-16504778280139093.csv</t>
+          <t>OB-16509961153943777.csv</t>
         </is>
       </c>
     </row>
@@ -546,7 +546,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>OB-1650477825883911.csv</t>
+          <t>OB-1650996115186375.csv</t>
         </is>
       </c>
     </row>
@@ -556,7 +556,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>ZB-match_5-1650477825443883.csv</t>
+          <t>ZB-match_7-16509961145143778.csv</t>
         </is>
       </c>
     </row>
@@ -566,7 +566,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>ZB-match_4-16504778253148754.csv</t>
+          <t>OB-16509961147863748.csv</t>
         </is>
       </c>
     </row>
@@ -576,7 +576,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>TB-16504778267069166.csv</t>
+          <t>ZB-match_7-1650996114602421.csv</t>
         </is>
       </c>
     </row>
@@ -586,7 +586,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>OB-1650477826121879.csv</t>
+          <t>ZB-match_3-16509961144584117.csv</t>
         </is>
       </c>
     </row>
@@ -596,7 +596,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>ZB-match_9-16504778251038754.csv</t>
+          <t>TB-16509961157784116.csv</t>
         </is>
       </c>
     </row>
@@ -678,7 +678,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>MM_stims-16504778280599139.csv</t>
+          <t>MM_stims-16509961161146102.csv</t>
         </is>
       </c>
     </row>
@@ -688,7 +688,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>ZM_stims-16504778280478787.csv</t>
+          <t>ZM_stims-16509961160905957.csv</t>
         </is>
       </c>
     </row>
@@ -698,7 +698,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>MM_stims-16504778280759106.csv</t>
+          <t>MM_stims-16509961161306055.csv</t>
         </is>
       </c>
     </row>
@@ -708,7 +708,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>ZM_stims-1650477828060881.csv</t>
+          <t>ZM_stims-16509961161146102.csv</t>
         </is>
       </c>
     </row>
@@ -718,7 +718,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>MM_stims-1650477828091911.csv</t>
+          <t>MM_stims-16509961161465964.csv</t>
         </is>
       </c>
     </row>
@@ -728,7 +728,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>ZM_stims-165047782807688.csv</t>
+          <t>ZM_stims-16509961161306055.csv</t>
         </is>
       </c>
     </row>
@@ -764,7 +764,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>vSAT_stims-16504778281399105.csv</t>
+          <t>vSAT_stims-16509961161945977.csv</t>
         </is>
       </c>
     </row>
@@ -774,7 +774,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>SAT_stims-16504778280958784.csv</t>
+          <t>SAT_stims-16509961161625717.csv</t>
         </is>
       </c>
     </row>
@@ -784,7 +784,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>vSAT_stims-16504778281239138.csv</t>
+          <t>SAT_stims-16509961161465964.csv</t>
         </is>
       </c>
     </row>
@@ -794,7 +794,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>SAT_stims-16504778281079185.csv</t>
+          <t>vSAT_stims-16509961161786017.csv</t>
         </is>
       </c>
     </row>

--- a/participants/participant_21/participant_21_task_orders.xlsx
+++ b/participants/participant_21/participant_21_task_orders.xlsx
@@ -7,11 +7,11 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="GNG_TO-16509961144424143" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet name="NB_TO-16509961160826461" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet name="RS_TO-16509961160826461" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet name="TOL_TO-16509961161465964" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet name="vSAT_TO-16509961162105973" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet name="GNG_TO-1651168713429141" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="NB_TO-16511687157842805" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="RS_TO-1651168715785246" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="TOL_TO-16511687158315954" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet name="vSAT_TO-16511687159146957" sheetId="5" state="visible" r:id="rId5"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -450,7 +450,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>go_stims-1650996114402416.csv</t>
+          <t>go_stims-16511687133874135.csv</t>
         </is>
       </c>
     </row>
@@ -460,7 +460,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>GNG_stims-16509961144263744.csv</t>
+          <t>GNG_stims-16511687134102376.csv</t>
         </is>
       </c>
     </row>
@@ -470,7 +470,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>go_stims-16509961144263744.csv</t>
+          <t>go_stims-16511687134123068.csv</t>
         </is>
       </c>
     </row>
@@ -480,7 +480,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>GNG_stims-16509961144424143.csv</t>
+          <t>GNG_stims-16511687134272408.csv</t>
         </is>
       </c>
     </row>
@@ -516,7 +516,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>TB-16509961159864101.csv</t>
+          <t>ZB-match_1-16511687140644267.csv</t>
         </is>
       </c>
     </row>
@@ -526,7 +526,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>TB-1650996116066561.csv</t>
+          <t>ZB-match_3-1651168714017146.csv</t>
         </is>
       </c>
     </row>
@@ -536,7 +536,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>OB-16509961153943777.csv</t>
+          <t>TB-16511687154333007.csv</t>
         </is>
       </c>
     </row>
@@ -546,7 +546,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>OB-1650996115186375.csv</t>
+          <t>TB-16511687148053193.csv</t>
         </is>
       </c>
     </row>
@@ -556,7 +556,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>ZB-match_7-16509961145143778.csv</t>
+          <t>OB-1651168714242898.csv</t>
         </is>
       </c>
     </row>
@@ -566,7 +566,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>OB-16509961147863748.csv</t>
+          <t>ZB-match_8-16511687135532124.csv</t>
         </is>
       </c>
     </row>
@@ -576,7 +576,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>ZB-match_7-1650996114602421.csv</t>
+          <t>OB-16511687145394976.csv</t>
         </is>
       </c>
     </row>
@@ -586,7 +586,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>ZB-match_3-16509961144584117.csv</t>
+          <t>OB-16511687142113855.csv</t>
         </is>
       </c>
     </row>
@@ -596,7 +596,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>TB-16509961157784116.csv</t>
+          <t>TB-16511687157588246.csv</t>
         </is>
       </c>
     </row>
@@ -632,7 +632,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>eyes closed</t>
+          <t>eyes open</t>
         </is>
       </c>
     </row>
@@ -642,7 +642,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>eyes open</t>
+          <t>eyes closed</t>
         </is>
       </c>
     </row>
@@ -678,7 +678,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>MM_stims-16509961161146102.csv</t>
+          <t>MM_stims-16511687157998545.csv</t>
         </is>
       </c>
     </row>
@@ -688,7 +688,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>ZM_stims-16509961160905957.csv</t>
+          <t>ZM_stims-16511687157862463.csv</t>
         </is>
       </c>
     </row>
@@ -698,7 +698,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>MM_stims-16509961161306055.csv</t>
+          <t>MM_stims-16511687158154333.csv</t>
         </is>
       </c>
     </row>
@@ -708,7 +708,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>ZM_stims-16509961161146102.csv</t>
+          <t>ZM_stims-16511687157998545.csv</t>
         </is>
       </c>
     </row>
@@ -718,7 +718,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>MM_stims-16509961161465964.csv</t>
+          <t>MM_stims-16511687158305962.csv</t>
         </is>
       </c>
     </row>
@@ -728,7 +728,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>ZM_stims-16509961161306055.csv</t>
+          <t>ZM_stims-16511687158154333.csv</t>
         </is>
       </c>
     </row>
@@ -764,7 +764,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>vSAT_stims-16509961161945977.csv</t>
+          <t>vSAT_stims-1651168715867472.csv</t>
         </is>
       </c>
     </row>
@@ -774,7 +774,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>SAT_stims-16509961161625717.csv</t>
+          <t>SAT_stims-1651168715834595.csv</t>
         </is>
       </c>
     </row>
@@ -784,7 +784,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>SAT_stims-16509961161465964.csv</t>
+          <t>vSAT_stims-1651168715898432.csv</t>
         </is>
       </c>
     </row>
@@ -794,7 +794,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>vSAT_stims-16509961161786017.csv</t>
+          <t>SAT_stims-16511687158514347.csv</t>
         </is>
       </c>
     </row>

--- a/participants/participant_21/participant_21_task_orders.xlsx
+++ b/participants/participant_21/participant_21_task_orders.xlsx
@@ -7,11 +7,11 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="GNG_TO-1651168713429141" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet name="NB_TO-16511687157842805" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet name="RS_TO-1651168715785246" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet name="TOL_TO-16511687158315954" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet name="vSAT_TO-16511687159146957" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet name="GNG_TO-16512555378532143" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="NB_TO-1651255540253471" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="RS_TO-16512555402544723" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="TOL_TO-16512555403014758" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet name="vSAT_TO-1651255540380471" sheetId="5" state="visible" r:id="rId5"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -450,7 +450,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>go_stims-16511687133874135.csv</t>
+          <t>go_stims-16512555378162155.csv</t>
         </is>
       </c>
     </row>
@@ -460,7 +460,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>GNG_stims-16511687134102376.csv</t>
+          <t>GNG_stims-16512555378362148.csv</t>
         </is>
       </c>
     </row>
@@ -470,7 +470,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>go_stims-16511687134123068.csv</t>
+          <t>go_stims-16512555378382144.csv</t>
         </is>
       </c>
     </row>
@@ -480,7 +480,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>GNG_stims-16511687134272408.csv</t>
+          <t>GNG_stims-16512555378522124.csv</t>
         </is>
       </c>
     </row>
@@ -516,7 +516,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>ZB-match_1-16511687140644267.csv</t>
+          <t>ZB-match_4-16512555381126966.csv</t>
         </is>
       </c>
     </row>
@@ -526,7 +526,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>ZB-match_3-1651168714017146.csv</t>
+          <t>OB-16512555383436956.csv</t>
         </is>
       </c>
     </row>
@@ -536,7 +536,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>TB-16511687154333007.csv</t>
+          <t>OB-1651255539184693.csv</t>
         </is>
       </c>
     </row>
@@ -546,7 +546,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>TB-16511687148053193.csv</t>
+          <t>TB-16512555396584706.csv</t>
         </is>
       </c>
     </row>
@@ -556,7 +556,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>OB-1651168714242898.csv</t>
+          <t>ZB-match_3-16512555383156946.csv</t>
         </is>
       </c>
     </row>
@@ -566,7 +566,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>ZB-match_8-16511687135532124.csv</t>
+          <t>TB-16512555399544728.csv</t>
         </is>
       </c>
     </row>
@@ -576,7 +576,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>OB-16511687145394976.csv</t>
+          <t>OB-16512555385876927.csv</t>
         </is>
       </c>
     </row>
@@ -586,7 +586,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>OB-16511687142113855.csv</t>
+          <t>TB-16512555402334714.csv</t>
         </is>
       </c>
     </row>
@@ -596,7 +596,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>TB-16511687157588246.csv</t>
+          <t>ZB-match_6-16512555381956995.csv</t>
         </is>
       </c>
     </row>
@@ -632,7 +632,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>eyes open</t>
+          <t>eyes closed</t>
         </is>
       </c>
     </row>
@@ -642,7 +642,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>eyes closed</t>
+          <t>eyes open</t>
         </is>
       </c>
     </row>
@@ -678,7 +678,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>MM_stims-16511687157998545.csv</t>
+          <t>MM_stims-16512555402694707.csv</t>
         </is>
       </c>
     </row>
@@ -688,7 +688,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>ZM_stims-16511687157862463.csv</t>
+          <t>ZM_stims-16512555402574785.csv</t>
         </is>
       </c>
     </row>
@@ -698,7 +698,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>MM_stims-16511687158154333.csv</t>
+          <t>MM_stims-16512555402854736.csv</t>
         </is>
       </c>
     </row>
@@ -708,7 +708,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>ZM_stims-16511687157998545.csv</t>
+          <t>ZM_stims-16512555402704742.csv</t>
         </is>
       </c>
     </row>
@@ -718,7 +718,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>MM_stims-16511687158305962.csv</t>
+          <t>MM_stims-16512555403004737.csv</t>
         </is>
       </c>
     </row>
@@ -728,7 +728,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>ZM_stims-16511687158154333.csv</t>
+          <t>ZM_stims-16512555402864735.csv</t>
         </is>
       </c>
     </row>
@@ -764,7 +764,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>vSAT_stims-1651168715867472.csv</t>
+          <t>SAT_stims-16512555403334792.csv</t>
         </is>
       </c>
     </row>
@@ -774,7 +774,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>SAT_stims-1651168715834595.csv</t>
+          <t>vSAT_stims-16512555403484719.csv</t>
         </is>
       </c>
     </row>
@@ -784,7 +784,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>vSAT_stims-1651168715898432.csv</t>
+          <t>vSAT_stims-16512555403644712.csv</t>
         </is>
       </c>
     </row>
@@ -794,7 +794,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>SAT_stims-16511687158514347.csv</t>
+          <t>SAT_stims-1651255540307475.csv</t>
         </is>
       </c>
     </row>

--- a/participants/participant_21/participant_21_task_orders.xlsx
+++ b/participants/participant_21/participant_21_task_orders.xlsx
@@ -7,11 +7,11 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="GNG_TO-16512555378532143" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet name="NB_TO-1651255540253471" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet name="RS_TO-16512555402544723" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet name="TOL_TO-16512555403014758" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet name="vSAT_TO-1651255540380471" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet name="GNG_TO-1651588970469845" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="RS_TO-16515889704728415" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="TOL_TO-16515889705326967" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="NB_TO-16515889735058324" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet name="vSAT_TO-1651588973585828" sheetId="5" state="visible" r:id="rId5"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -450,7 +450,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>go_stims-16512555378162155.csv</t>
+          <t>go_stims-16515889704266326.csv</t>
         </is>
       </c>
     </row>
@@ -460,7 +460,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>GNG_stims-16512555378362148.csv</t>
+          <t>GNG_stims-1651588970443203.csv</t>
         </is>
       </c>
     </row>
@@ -470,7 +470,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>go_stims-16512555378382144.csv</t>
+          <t>go_stims-16515889704441674.csv</t>
         </is>
       </c>
     </row>
@@ -480,7 +480,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>GNG_stims-16512555378522124.csv</t>
+          <t>GNG_stims-16515889704688404.csv</t>
         </is>
       </c>
     </row>
@@ -490,6 +490,138 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:B3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>task_order</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>eyes closed</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>eyes open</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:B7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>task_order</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>MM_stims-16515889705006914.csv</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>ZM_stims-1651588970476392.csv</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>MM_stims-16515889705156953.csv</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>ZM_stims-16515889705026975.csv</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>MM_stims-16515889705316956.csv</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>ZM_stims-16515889705166957.csv</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -516,7 +648,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>ZB-match_4-16512555381126966.csv</t>
+          <t>OB-16515889727378304.csv</t>
         </is>
       </c>
     </row>
@@ -526,7 +658,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>OB-16512555383436956.csv</t>
+          <t>ZB-match_4-1651588970669989.csv</t>
         </is>
       </c>
     </row>
@@ -536,7 +668,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>OB-1651255539184693.csv</t>
+          <t>OB-16515889712966251.csv</t>
         </is>
       </c>
     </row>
@@ -546,7 +678,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>TB-16512555396584706.csv</t>
+          <t>TB-16515889734258292.csv</t>
         </is>
       </c>
     </row>
@@ -556,7 +688,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>ZB-match_3-16512555383156946.csv</t>
+          <t>ZB-match_7-165158897074455.csv</t>
         </is>
       </c>
     </row>
@@ -566,7 +698,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>TB-16512555399544728.csv</t>
+          <t>OB-1651588970959285.csv</t>
         </is>
       </c>
     </row>
@@ -576,7 +708,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>OB-16512555385876927.csv</t>
+          <t>TB-16515889731488318.csv</t>
         </is>
       </c>
     </row>
@@ -586,7 +718,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>TB-16512555402334714.csv</t>
+          <t>TB-16515889734938266.csv</t>
         </is>
       </c>
     </row>
@@ -596,139 +728,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>ZB-match_6-16512555381956995.csv</t>
-        </is>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:B3"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>task_order</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>eyes closed</t>
-        </is>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>eyes open</t>
-        </is>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:B7"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>task_order</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>MM_stims-16512555402694707.csv</t>
-        </is>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>ZM_stims-16512555402574785.csv</t>
-        </is>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>MM_stims-16512555402854736.csv</t>
-        </is>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>ZM_stims-16512555402704742.csv</t>
-        </is>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>MM_stims-16512555403004737.csv</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="1" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>ZM_stims-16512555402864735.csv</t>
+          <t>ZB-match_2-16515889705668998.csv</t>
         </is>
       </c>
     </row>
@@ -764,7 +764,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>SAT_stims-16512555403334792.csv</t>
+          <t>vSAT_stims-16515889735698276.csv</t>
         </is>
       </c>
     </row>
@@ -774,7 +774,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>vSAT_stims-16512555403484719.csv</t>
+          <t>SAT_stims-165158897351383.csv</t>
         </is>
       </c>
     </row>
@@ -784,7 +784,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>vSAT_stims-16512555403644712.csv</t>
+          <t>vSAT_stims-16515889735538316.csv</t>
         </is>
       </c>
     </row>
@@ -794,7 +794,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>SAT_stims-1651255540307475.csv</t>
+          <t>SAT_stims-16515889735378273.csv</t>
         </is>
       </c>
     </row>
